--- a/文档/菜单_表名称映射.xlsx
+++ b/文档/菜单_表名称映射.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>菜单名称</t>
   </si>
@@ -259,6 +259,54 @@
   </si>
   <si>
     <t>m040</t>
+  </si>
+  <si>
+    <t>安全规章制度模板</t>
+  </si>
+  <si>
+    <t>m041</t>
+  </si>
+  <si>
+    <t>安全检查模板</t>
+  </si>
+  <si>
+    <t>m042</t>
+  </si>
+  <si>
+    <t>设备点检模板</t>
+  </si>
+  <si>
+    <t>m043</t>
+  </si>
+  <si>
+    <t>隐患排查模板</t>
+  </si>
+  <si>
+    <t>m044</t>
+  </si>
+  <si>
+    <t>风险排查模板</t>
+  </si>
+  <si>
+    <t>m045</t>
+  </si>
+  <si>
+    <t>会议模板</t>
+  </si>
+  <si>
+    <t>m046</t>
+  </si>
+  <si>
+    <t>培训模板</t>
+  </si>
+  <si>
+    <t>m047</t>
+  </si>
+  <si>
+    <t>责任书模板</t>
+  </si>
+  <si>
+    <t>m048</t>
   </si>
 </sst>
 </file>
@@ -266,10 +314,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -281,7 +329,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,6 +337,97 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,45 +448,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,61 +471,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -439,187 +487,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,17 +681,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,15 +695,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,17 +710,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,6 +739,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -730,6 +767,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -738,10 +786,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -750,137 +798,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -888,6 +936,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1236,10 +1285,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1574,6 +1623,70 @@
       </c>
       <c r="B41" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/文档/菜单_表名称映射.xlsx
+++ b/文档/菜单_表名称映射.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
   <si>
     <t>菜单名称</t>
   </si>
@@ -279,9 +279,6 @@
     <t>m043</t>
   </si>
   <si>
-    <t>隐患排查模板</t>
-  </si>
-  <si>
     <t>m044</t>
   </si>
   <si>
@@ -307,19 +304,24 @@
   </si>
   <si>
     <t>m048</t>
+  </si>
+  <si>
+    <t>罐式车辆检查模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>危险货物自查模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m049</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,151 +330,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,198 +345,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -680,251 +358,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -938,57 +374,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1279,25 +668,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="A45" sqref="A45:B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1305,7 +694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1313,7 +702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1321,7 +710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1329,7 +718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1337,7 +726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1345,7 +734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1353,7 +742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1361,7 +750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1369,7 +758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1377,7 +766,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1385,7 +774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1393,7 +782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1401,7 +790,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1409,7 +798,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1417,7 +806,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1425,7 +814,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1433,7 +822,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1441,7 +830,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -1449,7 +838,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -1457,7 +846,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -1465,7 +854,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -1473,7 +862,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1481,7 +870,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -1489,7 +878,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -1497,7 +886,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -1505,7 +894,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -1513,7 +902,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -1521,7 +910,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -1529,7 +918,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -1537,7 +926,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -1545,7 +934,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -1553,7 +942,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -1561,7 +950,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -1569,7 +958,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
@@ -1577,7 +966,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
@@ -1585,7 +974,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>48</v>
       </c>
@@ -1593,7 +982,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>73</v>
       </c>
@@ -1601,7 +990,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>75</v>
       </c>
@@ -1609,7 +998,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>77</v>
       </c>
@@ -1617,7 +1006,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>79</v>
       </c>
@@ -1625,7 +1014,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>81</v>
       </c>
@@ -1633,7 +1022,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>83</v>
       </c>
@@ -1641,7 +1030,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>85</v>
       </c>
@@ -1649,83 +1038,85 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" t="s">
         <v>87</v>
       </c>
-      <c r="B45" t="s">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="3" t="s">
+      <c r="B46" t="s">
         <v>89</v>
       </c>
-      <c r="B46" t="s">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="3" t="s">
+      <c r="B47" t="s">
         <v>91</v>
       </c>
-      <c r="B47" t="s">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="3" t="s">
+      <c r="B48" t="s">
         <v>93</v>
       </c>
-      <c r="B48" t="s">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="3" t="s">
+      <c r="B49" t="s">
         <v>95</v>
       </c>
-      <c r="B49" t="s">
-        <v>96</v>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/文档/菜单_表名称映射.xlsx
+++ b/文档/菜单_表名称映射.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
   <si>
     <t>菜单名称</t>
   </si>
@@ -24,6 +24,9 @@
     <t>表前缀</t>
   </si>
   <si>
+    <t>修改</t>
+  </si>
+  <si>
     <t>企业简要介绍</t>
   </si>
   <si>
@@ -168,6 +171,10 @@
     <t>m024</t>
   </si>
   <si>
+    <t>1、罐式车辆检车
+2、危险货物自查</t>
+  </si>
+  <si>
     <t>责任制考核</t>
   </si>
   <si>
@@ -279,6 +286,9 @@
     <t>m043</t>
   </si>
   <si>
+    <t>罐式车辆检查模板</t>
+  </si>
+  <si>
     <t>m044</t>
   </si>
   <si>
@@ -306,12 +316,7 @@
     <t>m048</t>
   </si>
   <si>
-    <t>罐式车辆检查模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>危险货物自查模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>m049</t>
@@ -320,8 +325,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,13 +341,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,12 +494,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -358,13 +693,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -372,12 +949,62 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -668,455 +1295,468 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:B45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" ht="27" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="B37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" t="s">
         <v>96</v>
       </c>
-      <c r="B45" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="3" t="s">
-        <v>94</v>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/文档/菜单_表名称映射.xlsx
+++ b/文档/菜单_表名称映射.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>菜单名称</t>
   </si>
@@ -87,22 +87,10 @@
     <t>m010</t>
   </si>
   <si>
-    <t>岗位人员档案</t>
+    <t>人员档案</t>
   </si>
   <si>
     <t>m011</t>
-  </si>
-  <si>
-    <t>类别人员档案</t>
-  </si>
-  <si>
-    <t>m012</t>
-  </si>
-  <si>
-    <t>所有资质展示</t>
-  </si>
-  <si>
-    <t>m013</t>
   </si>
   <si>
     <t>运营设备档案</t>
@@ -327,10 +315,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -341,8 +329,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,7 +354,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,9 +398,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,105 +472,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -500,187 +488,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,11 +682,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,27 +712,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -755,6 +732,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,17 +763,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,10 +787,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -811,133 +799,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1301,10 +1289,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="$A13:$XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1493,30 +1481,30 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" ht="27" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B23" t="s">
         <v>46</v>
       </c>
+      <c r="C23" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" ht="27" spans="1:3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1594,23 +1582,23 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
         <v>70</v>
-      </c>
-      <c r="B35" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
         <v>72</v>
-      </c>
-      <c r="B36" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
         <v>74</v>
@@ -1633,7 +1621,7 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B40" t="s">
@@ -1641,7 +1629,7 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B41" t="s">
@@ -1702,22 +1690,6 @@
       </c>
       <c r="B48" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B49" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/文档/菜单_表名称映射.xlsx
+++ b/文档/菜单_表名称映射.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
   <si>
     <t>菜单名称</t>
   </si>
@@ -93,34 +93,10 @@
     <t>m011</t>
   </si>
   <si>
-    <t>运营设备档案</t>
-  </si>
-  <si>
-    <t>m014</t>
-  </si>
-  <si>
-    <t>安全设备档案</t>
-  </si>
-  <si>
-    <t>m015</t>
-  </si>
-  <si>
-    <t>应急设备档案</t>
-  </si>
-  <si>
-    <t>m016</t>
-  </si>
-  <si>
-    <t>特种设备档案</t>
-  </si>
-  <si>
-    <t>m017</t>
-  </si>
-  <si>
-    <t>其他设备档案</t>
-  </si>
-  <si>
-    <t>m018</t>
+    <t>设备档案</t>
+  </si>
+  <si>
+    <t>m012</t>
   </si>
   <si>
     <t>安全投入台账</t>
@@ -315,9 +291,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -329,6 +305,142 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -336,142 +448,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -488,187 +464,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,17 +658,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,30 +713,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,22 +741,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,10 +763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -799,133 +775,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1289,10 +1265,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="$A13:$XFD14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1449,46 +1425,46 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" ht="27" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
       </c>
+      <c r="C19" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" ht="27" spans="1:3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1550,46 +1526,46 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
         <v>62</v>
-      </c>
-      <c r="B31" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
         <v>64</v>
-      </c>
-      <c r="B32" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
         <v>66</v>
-      </c>
-      <c r="B33" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
         <v>68</v>
-      </c>
-      <c r="B34" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B36" t="s">
@@ -1597,7 +1573,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B37" t="s">
@@ -1605,7 +1581,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B38" t="s">
@@ -1613,7 +1589,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B39" t="s">
@@ -1658,38 +1634,6 @@
       </c>
       <c r="B44" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B48" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/文档/菜单_表名称映射.xlsx
+++ b/文档/菜单_表名称映射.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t>菜单名称</t>
   </si>
@@ -169,18 +169,6 @@
     <t>m029</t>
   </si>
   <si>
-    <t>三年行动计划</t>
-  </si>
-  <si>
-    <t>m030</t>
-  </si>
-  <si>
-    <t>责任状签署</t>
-  </si>
-  <si>
-    <t>m031</t>
-  </si>
-  <si>
     <t>标准化自评</t>
   </si>
   <si>
@@ -284,6 +272,36 @@
   </si>
   <si>
     <t>m049</t>
+  </si>
+  <si>
+    <t>安全责任考核模板</t>
+  </si>
+  <si>
+    <t>m050</t>
+  </si>
+  <si>
+    <t>安全目标考核模板</t>
+  </si>
+  <si>
+    <t>m051</t>
+  </si>
+  <si>
+    <t>应急预案演练模板</t>
+  </si>
+  <si>
+    <t>m052</t>
+  </si>
+  <si>
+    <t>职业健康记录模板</t>
+  </si>
+  <si>
+    <t>m053</t>
+  </si>
+  <si>
+    <t>标准化自评模板</t>
+  </si>
+  <si>
+    <t>m054</t>
   </si>
 </sst>
 </file>
@@ -291,10 +309,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -307,6 +325,98 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,104 +437,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -441,9 +453,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,187 +482,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,11 +685,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,45 +750,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -755,6 +764,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -763,10 +781,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,137 +793,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -916,6 +934,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1265,10 +1284,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1510,23 +1529,23 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
         <v>58</v>
-      </c>
-      <c r="B29" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
         <v>60</v>
-      </c>
-      <c r="B30" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
         <v>62</v>
@@ -1549,7 +1568,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B34" t="s">
@@ -1557,7 +1576,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B35" t="s">
@@ -1621,7 +1640,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B43" t="s">
@@ -1629,11 +1648,35 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B44" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/文档/菜单_表名称映射.xlsx
+++ b/文档/菜单_表名称映射.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>菜单名称</t>
   </si>
@@ -302,6 +302,12 @@
   </si>
   <si>
     <t>m054</t>
+  </si>
+  <si>
+    <t>人员档案模板</t>
+  </si>
+  <si>
+    <t>m055</t>
   </si>
 </sst>
 </file>
@@ -309,10 +315,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -323,6 +329,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -331,7 +367,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,46 +412,24 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,8 +443,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,58 +466,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -482,49 +488,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,133 +668,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,6 +679,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -715,41 +754,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -767,9 +771,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,10 +787,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -793,137 +799,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -934,7 +940,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1284,10 +1289,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1640,7 +1645,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B43" t="s">
@@ -1648,7 +1653,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B44" t="s">
@@ -1656,7 +1661,7 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B45" t="s">
@@ -1664,7 +1669,7 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B46" t="s">
@@ -1672,11 +1677,19 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B47" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/文档/菜单_表名称映射.xlsx
+++ b/文档/菜单_表名称映射.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
   <si>
     <t>菜单名称</t>
   </si>
@@ -308,19 +308,20 @@
   </si>
   <si>
     <t>m055</t>
+  </si>
+  <si>
+    <t>m056</t>
+  </si>
+  <si>
+    <t>设备档案模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,151 +330,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,198 +345,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="3" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -681,251 +358,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -942,57 +377,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1283,26 +671,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1313,7 +701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1321,7 +709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1329,7 +717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1337,7 +725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1345,7 +733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1353,7 +741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1361,7 +749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1369,7 +757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1377,7 +765,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1385,7 +773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1393,7 +781,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1401,7 +789,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1409,7 +797,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1417,7 +805,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -1425,7 +813,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1433,7 +821,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1441,7 +829,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1449,7 +837,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" ht="27" spans="1:3">
+    <row r="19" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
@@ -1460,7 +848,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -1468,7 +856,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -1476,7 +864,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
@@ -1484,7 +872,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -1492,7 +880,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1500,7 +888,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>50</v>
       </c>
@@ -1508,7 +896,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
@@ -1516,7 +904,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
@@ -1524,7 +912,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>56</v>
       </c>
@@ -1532,7 +920,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
@@ -1540,7 +928,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
@@ -1548,7 +936,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
@@ -1556,7 +944,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>63</v>
       </c>
@@ -1564,7 +952,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>65</v>
       </c>
@@ -1572,7 +960,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>67</v>
       </c>
@@ -1580,7 +968,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>69</v>
       </c>
@@ -1588,7 +976,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>71</v>
       </c>
@@ -1596,7 +984,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>73</v>
       </c>
@@ -1604,7 +992,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>75</v>
       </c>
@@ -1612,7 +1000,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>77</v>
       </c>
@@ -1620,7 +1008,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>79</v>
       </c>
@@ -1628,7 +1016,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>81</v>
       </c>
@@ -1636,7 +1024,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>83</v>
       </c>
@@ -1644,7 +1032,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>85</v>
       </c>
@@ -1652,7 +1040,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>87</v>
       </c>
@@ -1660,7 +1048,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>89</v>
       </c>
@@ -1668,7 +1056,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>91</v>
       </c>
@@ -1676,7 +1064,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>93</v>
       </c>
@@ -1684,7 +1072,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>95</v>
       </c>
@@ -1692,43 +1080,45 @@
         <v>96</v>
       </c>
     </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/文档/菜单_表名称映射.xlsx
+++ b/文档/菜单_表名称映射.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
   <si>
     <t>菜单名称</t>
   </si>
@@ -310,18 +310,29 @@
     <t>m055</t>
   </si>
   <si>
+    <t>设备档案模板</t>
+  </si>
+  <si>
     <t>m056</t>
   </si>
   <si>
-    <t>设备档案模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>设备点检记录</t>
+  </si>
+  <si>
+    <t>m057</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,13 +341,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,12 +494,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39994506668294322"/>
+        <fgColor theme="3" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -358,9 +693,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -377,10 +954,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -671,26 +1295,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,7 +1325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -709,7 +1333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -717,7 +1341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -725,7 +1349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -733,7 +1357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -741,7 +1365,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -749,7 +1373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -757,7 +1381,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -765,7 +1389,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -773,7 +1397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -781,7 +1405,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -789,7 +1413,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -797,7 +1421,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -805,7 +1429,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -813,7 +1437,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -821,7 +1445,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -829,7 +1453,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -837,7 +1461,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" ht="27" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
@@ -848,7 +1472,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -856,7 +1480,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -864,7 +1488,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
@@ -872,7 +1496,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -880,7 +1504,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -888,7 +1512,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
         <v>50</v>
       </c>
@@ -896,7 +1520,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
@@ -904,7 +1528,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
@@ -912,7 +1536,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
         <v>56</v>
       </c>
@@ -920,7 +1544,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
@@ -928,7 +1552,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
@@ -936,7 +1560,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
@@ -944,7 +1568,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
         <v>63</v>
       </c>
@@ -952,7 +1576,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
         <v>65</v>
       </c>
@@ -960,7 +1584,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
         <v>67</v>
       </c>
@@ -968,7 +1592,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
         <v>69</v>
       </c>
@@ -976,7 +1600,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
         <v>71</v>
       </c>
@@ -984,7 +1608,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
         <v>73</v>
       </c>
@@ -992,7 +1616,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
         <v>75</v>
       </c>
@@ -1000,7 +1624,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2">
       <c r="A39" s="4" t="s">
         <v>77</v>
       </c>
@@ -1008,7 +1632,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
         <v>79</v>
       </c>
@@ -1016,7 +1640,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
         <v>81</v>
       </c>
@@ -1024,7 +1648,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
         <v>83</v>
       </c>
@@ -1032,7 +1656,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
         <v>85</v>
       </c>
@@ -1040,7 +1664,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
         <v>87</v>
       </c>
@@ -1048,7 +1672,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
         <v>89</v>
       </c>
@@ -1056,7 +1680,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
         <v>91</v>
       </c>
@@ -1064,7 +1688,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
         <v>93</v>
       </c>
@@ -1072,7 +1696,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
         <v>95</v>
       </c>
@@ -1080,45 +1704,59 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
         <v>98</v>
       </c>
-      <c r="B49" t="s">
-        <v>97</v>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/文档/菜单_表名称映射.xlsx
+++ b/文档/菜单_表名称映射.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="21000" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
   <si>
     <t>菜单名称</t>
   </si>
@@ -320,6 +320,18 @@
   </si>
   <si>
     <t>m057</t>
+  </si>
+  <si>
+    <t>作业管理台账</t>
+  </si>
+  <si>
+    <t>m058</t>
+  </si>
+  <si>
+    <t>作业管理台账模板</t>
+  </si>
+  <si>
+    <t>m059</t>
   </si>
 </sst>
 </file>
@@ -327,9 +339,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -342,9 +354,138 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -355,135 +496,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -500,19 +512,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,31 +644,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,127 +668,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,6 +703,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -713,22 +745,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,11 +767,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,24 +803,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -799,10 +811,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -811,133 +823,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1301,10 +1313,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1718,6 +1730,22 @@
       </c>
       <c r="B50" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/文档/菜单_表名称映射.xlsx
+++ b/文档/菜单_表名称映射.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11790"/>
+    <workbookView windowWidth="29040" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="117">
   <si>
     <t>菜单名称</t>
   </si>
@@ -187,7 +187,7 @@
     <t>m034</t>
   </si>
   <si>
-    <t>各种安全活动</t>
+    <t>其他安全活动</t>
   </si>
   <si>
     <t>m035</t>
@@ -332,6 +332,42 @@
   </si>
   <si>
     <t>m059</t>
+  </si>
+  <si>
+    <t>风险等级</t>
+  </si>
+  <si>
+    <t>m060</t>
+  </si>
+  <si>
+    <t>安全文化建设模板</t>
+  </si>
+  <si>
+    <t>m061</t>
+  </si>
+  <si>
+    <t>安全生产月模板</t>
+  </si>
+  <si>
+    <t>m062</t>
+  </si>
+  <si>
+    <t>其他安全活动模板</t>
+  </si>
+  <si>
+    <t>m063</t>
+  </si>
+  <si>
+    <t>事故记录处理模板</t>
+  </si>
+  <si>
+    <t>m064</t>
+  </si>
+  <si>
+    <t>四不放过记录模板</t>
+  </si>
+  <si>
+    <t>m065</t>
   </si>
 </sst>
 </file>
@@ -340,8 +376,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -368,6 +404,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -377,25 +496,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -406,96 +532,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -512,79 +548,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,103 +728,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,11 +753,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,6 +816,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -764,45 +839,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -811,10 +847,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -823,133 +859,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1313,10 +1349,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53:B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1746,6 +1782,54 @@
       </c>
       <c r="B52" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/文档/菜单_表名称映射.xlsx
+++ b/文档/菜单_表名称映射.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="12975"/>
+    <workbookView windowWidth="28800" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="121">
   <si>
     <t>菜单名称</t>
   </si>
@@ -368,6 +368,18 @@
   </si>
   <si>
     <t>m065</t>
+  </si>
+  <si>
+    <t>GPS记录模板</t>
+  </si>
+  <si>
+    <t>m066</t>
+  </si>
+  <si>
+    <t>安全投入台账模板</t>
+  </si>
+  <si>
+    <t>m067</t>
   </si>
 </sst>
 </file>
@@ -375,9 +387,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -390,22 +402,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,6 +411,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,13 +432,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -442,17 +439,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -463,19 +452,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -490,28 +477,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,6 +497,53 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -548,19 +560,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,157 +740,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,17 +751,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -777,6 +778,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -788,6 +798,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,24 +843,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,145 +859,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1349,10 +1361,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53:B58"/>
+      <selection activeCell="B58" sqref="B58:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1830,6 +1842,22 @@
       </c>
       <c r="B58" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
